--- a/biology/Botanique/Lobelia_minutula/Lobelia_minutula.xlsx
+++ b/biology/Botanique/Lobelia_minutula/Lobelia_minutula.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lobelia minutula Engl. est une espèce de plantes à fleurs de la famille des Campanulaceae et du genre Lobelia, présente en Afrique tropicale.
 Ce sont des herbes.
@@ -512,9 +524,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (9 février 2018)[2] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (9 février 2018) (Attention liste brute contenant possiblement des synonymes) :
 variété Lobelia minutula var. kiwuensis (Engl.) E. Wimm.
 variété Lobelia minutula var. rugegensis (T.C.E. Fr.) E. Wimm.</t>
         </is>
